--- a/references.xlsx
+++ b/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34637\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B35BE-0BAC-4C46-AFD2-6E553F9408EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3F56A-00A1-485F-A0BD-74D2699B968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="316">
   <si>
     <t>Species</t>
   </si>
@@ -2691,1463 +2691,12 @@
   <si>
     <t>SLOSVS</t>
   </si>
-  <si>
-    <t>Uchimura, M., Faye, E.J., Shimada, S., Ogura, G., Inoue, T., Nakamura, Y. 2006. A Taxonomic Study of the Seagrass Genus Halophila (Hydrocharitaceae) from Japan: Description of a New Species Halophila japonica sp. nov. and Characterization of</t>
-  </si>
-  <si>
-    <r>
-      <t>Short, FT; Coles, RG (Eds.). (2001). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global seagrass research methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Elsevier.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verduin, J. J., Walker, D. I., &amp; Kuo, J. (1996). In situ submarine pollination in the seagrass Amphibolis antarctica. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marine Ecology Progress Series</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>133</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 307-309.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Orth, R. J., Harwell, M. C., &amp; Inglis, G. J. (2007). Ecology of seagrass seeds and seagrass dispersal processes. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Seagrasses: Biology, Ecologyand Conservation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (pp. 111-133). Springer, Dordrecht.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>McConchie, C. A., Ducker, S. C., &amp; Knox, R. B. (1982). Biology of Australian seagrasses: floral development and morphology in Amphibolis (Cymodoceaceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Australian Journal of Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3), 251-264.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Short, FT; Coles, RG (Eds.). (2001). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global seagrass research methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> . Elsevier.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Waycott, M., McMahon, K., &amp; Lavery, P. (2014). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A guide to southern temperate seagrasses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Csiro Publishing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Caye, G., &amp; Meinesz, A. (1985). Observations on the vegetative development, flowering and seeding of Cymodocea nodosa (Ucria) Ascherson on the Mediterranean coasts of France. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3-4), 277-289.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kuo, J. y Den Hartog, C. (2001). Taxonomía de pastos marinos y clave de identificación. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Métodos globales de investigación de pastos marinos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , 31-58.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rollón, R. N., Van Steveninck, E. D. D. R., &amp; van Vierssen, W. (2003). Spatio-temporal variation in sexual reproduction of the tropical seagrass Enhalus acoroides (Lf) Royle in Cape Bolinao, NW Philippines. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(4), 339-354.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phillips, R. C. (1967). On species of the seagrass, Halodule, in Florida. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bulletin of Marine Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3), 672-676.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Magalhães, K. M., &amp; de Souza Barros, K. V. (2017). Halodule genus in Brazil: a new growth form. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 38-43.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">de Souza Barros, K. V., de Macedo Carneiro, P. B., Amorim, L. A., do Nascimento Costa, F., &amp; de Almeida Rocha‐Barreira, C. (2016). Northern range extension of the seagrass Halodule emarginata Hartog. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feddes Repertorium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>127</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3-4), 65-71.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bujang, J. S., Zakaria, M. H., ARsHAD, A., Lam, S. L., &amp; Ogawa, H. (2006). Flowers and sexes in Malaysian seagrasses. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coastal Marine Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1), 184-188.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Doty, M. S., &amp; Stone, B. C. (1966). Two new species of Halophila (Hydrocharitaceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Brittonia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 303-306.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kuo, J., &amp; Den Hartog, C. (2001). Seagrass taxonomy and identification key. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global seagrass research methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 31-58.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Magalhães, K. M., Borges, J. C., &amp; Pitanga, M. E. (2015). Halophila baillonis Ascherson: first population dynamics data for the Southern Hemisphere. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anais da Academia Brasileira de Ciências</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 861-865.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Barros, K., Costa, F., &amp; Rocha‐Barreira, C. (2014). A Halophila baillonis Ascherson bed on the semiarid coast of Brazil. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feddes Repertorium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3‐4), 93-97.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Parthasarathy, N., Ravikumar, K., &amp; Ramamurthy, K. (1988). Floral biology and ecology of Halophila beccarii Aschers.(Hydrocharitaceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1-2), 141-151.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Larkum, A. W. D. (1995). Halophila capricorni (Hydrocharitaceae): a new species of seagrass from the Coral Sea. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3-4), 319-328.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Short, FT y Coles, RG (Eds.). (2001). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global seagrass research methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> . Elsevier.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jewett-Smith, J., McMillan, C., Kenworthy, W. J., &amp; Bird, K. (1997). Flowering and genetic banding patterns of Halophila johnsonii and conspecifics. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3-4), 323-331.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kuo, J. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(12), 1732.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Herbert, D. A. (1986). Staminate flowers of Halophila hawaiiana: description and notes on its flowering ecology. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aquatic botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97-102.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kim, J.B., Park, J., Jung, C., Lee, P., Lee, K. 2009. Distributional range extension of the seagrass </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="AdvP4DF60F"/>
-      </rPr>
-      <t>Halophila nipponica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="AdvP4DF60F"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="AdvP4DF60E"/>
-      </rPr>
-      <t xml:space="preserve">into coastal waters off the Korean peninsula. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aquatic Botany 90: 269–272.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kuo, J. (2007). New monoecious seagrass of Halophila sulawesii (Hydrocharitaceae) from Indonesia. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2), 171-175.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kuo, J. (2007). New monoecious seagrass of Halophila sulawesii (Hydrocharitaceae) from Indonesia. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2), 171-175.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Miki, S. (1933). On the sea-grasses in Japan (I). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Shokubutsugaku Zasshi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(564), 842-862.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Buckel, CA, Blanchette, CA, Warner, RR y Gaines, SD (2012). Donde es difícil encontrar un macho: consecuencias de la rareza masculina en el pasto de surf Phyllospadix torreyi. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Serie Progreso de la Ecología Marina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>449</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , 121-132.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cambridge, M. L., &amp; Kuo, J. (1979). Two new species of seagrasses from Australia, Posidonia sinuosa and P. angustifolia (Posidoniaceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 307-328.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Campey, M. L., Kendrick, G. A., &amp; Walker, D. I. (2002). Interannual and small-scale spatial variability in sexual reproduction of the seagrasses Posidonia coriacea and Heterozostera tasmanica, southwestern Australia. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(4), 287-297.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sinclair, E. A., Gecan, I., Krauss, S. L., &amp; Kendrick, G. A. (2014). Against the odds: complete outcrossing in a monoecious clonal seagrass Posidonia australis (Posidoniaceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Annals of Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(7), 1185-1196.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Balestri, E., &amp; Cinelli, F. (2003). Sexual reproductive success in Posidonia oceanica. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1), 21-32.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kuo, J., &amp; Cambridge, M. L. (1984). A taxonomic study of the Posidonia ostenfeldii complex (Posidoniaceae) with description of four new Australian seagrasses. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3-4), 267-295.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Marbá, N., &amp; Walker, DI (1999). Crecimiento, floración y dinámica de población de pastos marinos templados de Australia Occidental. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Serie Progreso de la Ecología Marina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>184</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> , 105-118.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Short, FT y Coles, RG (Eds.). (2001). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Global seagrass research methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Elsevier.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kuo, J. (2005). A revision of the genus Heterozostera (Zosteraceae). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>81</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2), 97-140.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4359,65 +2908,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="AdvP4DF60F"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="AdvP4DF60F"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="AdvP4DF60E"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4796,7 +3286,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4822,12 +3312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -27202,2900 +25686,2899 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F2" sqref="F2:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.44140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.33203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.77734375" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="15"/>
+    <col min="1" max="1" width="25.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.77734375" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="15" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
         <v>22</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="9">
         <v>80</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="9">
         <v>1.5</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="9">
         <v>100</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N2" s="15">
-        <v>1</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="15" customFormat="1">
-      <c r="A3" s="16" t="s">
+      <c r="M2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>56</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>60</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>0.7</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="9">
         <v>100</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N3" s="15">
-        <v>1</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="15" customFormat="1">
-      <c r="A4" s="16" t="s">
+      <c r="M3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>7</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <v>60</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="9">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9">
+        <v>60</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="9">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="9">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="9">
+        <v>15</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="9">
+        <v>14</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="9">
+        <v>3</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.6</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="9">
+        <v>60</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13.95" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="9">
+        <v>60</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="9">
+        <v>60</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="9">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="9">
+        <v>60</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="9">
+        <v>60</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="9">
+        <v>60</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="9">
+        <v>60</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="9">
+        <v>60</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="9">
+        <v>60</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" s="9">
+        <v>60</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.6">
+      <c r="A25" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="9">
+        <v>60</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="9">
+        <v>60</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>60</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27" s="9">
+        <v>60</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>70</v>
+      </c>
+      <c r="D28" s="9">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N28" s="9">
+        <v>60</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N29" s="9">
+        <v>60</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" s="9">
+        <v>60</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>150</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K31" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L31" s="9">
+        <v>11</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
         <v>10</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N4" s="15">
-        <v>1</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="15" customFormat="1">
-      <c r="A5" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="D32" s="9">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="9">
+        <v>11</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>200</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="9">
+        <v>11</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>60</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34" s="9">
+        <v>11</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9">
+        <v>200</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" s="9">
+        <v>11</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9">
+        <v>75</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="9">
+        <v>20</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N36" s="9">
+        <v>20</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9">
+        <v>60</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="9">
+        <v>20</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" s="9">
+        <v>20</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>35</v>
+      </c>
+      <c r="D38" s="9">
+        <v>100</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="9">
+        <v>20</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N38" s="9">
+        <v>20</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
         <v>40</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D39" s="9">
+        <v>180</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="9">
+        <v>20</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N39" s="9">
+        <v>20</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45</v>
+      </c>
+      <c r="D40" s="9">
+        <v>150</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="9">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N40" s="9">
+        <v>20</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="9">
+        <v>5</v>
+      </c>
+      <c r="C41" s="9">
+        <v>30</v>
+      </c>
+      <c r="D41" s="9">
+        <v>120</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L41" s="9">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N41" s="9">
+        <v>20</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9">
+        <v>120</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="9">
+        <v>20</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N42" s="9">
+        <v>20</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L43" s="9">
+        <v>8</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <v>15</v>
+      </c>
+      <c r="D44" s="9">
+        <v>50</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" s="9">
+        <v>8</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9">
+        <v>100</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L45" s="9">
+        <v>10</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N45" s="9">
+        <v>9</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>10</v>
+      </c>
+      <c r="D46" s="9">
+        <v>30</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="9">
+        <v>10</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N46" s="9">
+        <v>9</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
+        <v>33</v>
+      </c>
+      <c r="D47" s="9">
+        <v>15</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L47" s="9">
+        <v>50</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9">
         <v>60</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D48" s="9">
+        <v>20</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" s="9">
+        <v>50</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>15</v>
+      </c>
+      <c r="D49" s="9">
+        <v>150</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L49" s="9">
+        <v>4</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" s="9">
+        <v>3</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+      <c r="D50" s="9">
+        <v>70</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="9">
+        <v>4</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9">
+        <v>115</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="9">
+        <v>4</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="9">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9">
+        <v>16</v>
+      </c>
+      <c r="D52" s="9">
+        <v>80</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L52" s="9">
+        <v>4</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9">
+        <v>100</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L53" s="9">
+        <v>4</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="9">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9">
+        <v>5</v>
+      </c>
+      <c r="D54" s="9">
+        <v>100</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="9">
         <v>0.5</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="G54" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K54" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L54" s="9">
+        <v>4</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N54" s="9">
+        <v>1</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9">
+        <v>120</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" s="9">
+        <v>4</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>15</v>
+      </c>
+      <c r="D56" s="9">
+        <v>120</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="9">
+        <v>4</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9">
+        <v>60</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L57" s="9">
+        <v>4</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N57" s="9">
+        <v>1</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <v>15</v>
+      </c>
+      <c r="D58" s="9">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L58" s="9">
+        <v>4</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N58" s="9">
+        <v>1</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N5" s="15">
-        <v>1</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1">
-      <c r="A6" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="D59" s="9">
+        <v>40</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L59" s="9">
+        <v>4</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N59" s="9">
+        <v>1</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9">
+        <v>48</v>
+      </c>
+      <c r="D60" s="9">
+        <v>30</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L60" s="9">
+        <v>4</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N60" s="9">
+        <v>1</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="15">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15">
-        <v>15</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="C61" s="9">
+        <v>12</v>
+      </c>
+      <c r="D61" s="9">
+        <v>38</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K61" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="15">
-        <v>10</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N6" s="15">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="15" customFormat="1">
-      <c r="A7" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>25</v>
-      </c>
-      <c r="D7" s="15">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="15">
-        <v>10</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N7" s="15">
-        <v>1</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="15" customFormat="1">
-      <c r="A8" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15">
-        <v>150</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1.75</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="15">
-        <v>15</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N8" s="15">
-        <v>14</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="15" customFormat="1">
-      <c r="A9" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>25</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="15">
-        <v>3</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="15" customFormat="1">
-      <c r="A10" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="15">
-        <v>3</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="15" customFormat="1">
-      <c r="A11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="15">
-        <v>3</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N11" s="15">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="15" customFormat="1">
-      <c r="A12" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>7</v>
-      </c>
-      <c r="D12" s="15">
-        <v>29</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="15">
-        <v>3</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="15" customFormat="1">
-      <c r="A13" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15">
-        <v>15</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="15">
-        <v>3</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N13" s="15">
-        <v>1</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="15" customFormat="1">
-      <c r="A14" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="15">
-        <v>3</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N14" s="15">
-        <v>1</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15">
-        <v>15</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="L61" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N15" s="15">
-        <v>60</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="15" customFormat="1" ht="13.95" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N16" s="15">
-        <v>60</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="15" customFormat="1">
-      <c r="A17" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N17" s="15">
-        <v>60</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="15" customFormat="1">
-      <c r="A18" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="15">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15">
-        <v>54</v>
-      </c>
-      <c r="D18" s="15">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N18" s="15">
-        <v>60</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="15" customFormat="1">
-      <c r="A19" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
-        <v>58</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N19" s="15">
-        <v>60</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N20" s="15">
-        <v>60</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="15" customFormat="1">
-      <c r="A21" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="15">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N21" s="15">
-        <v>60</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="15" customFormat="1">
-      <c r="A22" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N22" s="15">
-        <v>60</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15">
-        <v>5</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N23" s="15">
-        <v>60</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="15" customFormat="1">
-      <c r="A24" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0</v>
-      </c>
-      <c r="C24" s="15">
-        <v>7</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N24" s="15">
-        <v>60</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="15" customFormat="1">
-      <c r="A25" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="15">
-        <v>0</v>
-      </c>
-      <c r="C25" s="15">
-        <v>8</v>
-      </c>
-      <c r="D25" s="15">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N25" s="15">
-        <v>60</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="15" customFormat="1">
-      <c r="A26" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="15">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15">
-        <v>20</v>
-      </c>
-      <c r="D26" s="15">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="15">
-        <v>1</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N26" s="15">
-        <v>60</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="15" customFormat="1">
-      <c r="A27" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="15">
-        <v>60</v>
-      </c>
-      <c r="D27" s="15">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N27" s="15">
-        <v>60</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="15" customFormat="1">
-      <c r="A28" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15">
-        <v>70</v>
-      </c>
-      <c r="D28" s="15">
-        <v>6</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N28" s="15">
-        <v>60</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="15">
-        <v>10</v>
-      </c>
-      <c r="C29" s="15">
-        <v>30</v>
-      </c>
-      <c r="D29" s="15">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N29" s="15">
-        <v>60</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="15" customFormat="1">
-      <c r="A30" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15">
-        <v>45</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N30" s="15">
-        <v>60</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="15" customFormat="1">
-      <c r="A31" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15">
-        <v>150</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L31" s="15">
-        <v>11</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N31" s="15">
-        <v>1</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="15" customFormat="1">
-      <c r="A32" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>10</v>
-      </c>
-      <c r="D32" s="15">
-        <v>55</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32" s="15">
-        <v>11</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N32" s="15">
-        <v>1</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="15" customFormat="1">
-      <c r="A33" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="15">
-        <v>0</v>
-      </c>
-      <c r="C33" s="15">
-        <v>5</v>
-      </c>
-      <c r="D33" s="15">
-        <v>200</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L33" s="15">
-        <v>11</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N33" s="15">
-        <v>1</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="15" customFormat="1">
-      <c r="A34" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="15">
-        <v>5</v>
-      </c>
-      <c r="D34" s="15">
-        <v>60</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L34" s="15">
-        <v>11</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N34" s="15">
-        <v>1</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="15" customFormat="1">
-      <c r="A35" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B35" s="15">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15">
-        <v>10</v>
-      </c>
-      <c r="D35" s="15">
-        <v>200</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L35" s="15">
-        <v>11</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N35" s="15">
-        <v>1</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="15" customFormat="1">
-      <c r="A36" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="15">
-        <v>2</v>
-      </c>
-      <c r="C36" s="15">
-        <v>50</v>
-      </c>
-      <c r="D36" s="15">
-        <v>75</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L36" s="15">
-        <v>20</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N36" s="15">
-        <v>20</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="15" customFormat="1">
-      <c r="A37" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" s="15">
-        <v>0</v>
-      </c>
-      <c r="C37" s="15">
-        <v>22</v>
-      </c>
-      <c r="D37" s="15">
-        <v>60</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="15">
-        <v>2</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L37" s="15">
-        <v>20</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N37" s="15">
-        <v>20</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="15" customFormat="1">
-      <c r="A38" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="15">
-        <v>2</v>
-      </c>
-      <c r="C38" s="15">
-        <v>35</v>
-      </c>
-      <c r="D38" s="15">
-        <v>100</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L38" s="15">
-        <v>20</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N38" s="15">
-        <v>20</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="15" customFormat="1">
-      <c r="A39" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="15">
-        <v>2</v>
-      </c>
-      <c r="C39" s="15">
-        <v>40</v>
-      </c>
-      <c r="D39" s="15">
-        <v>180</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L39" s="15">
-        <v>20</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N39" s="15">
-        <v>20</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="15" customFormat="1">
-      <c r="A40" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" s="15">
-        <v>1</v>
-      </c>
-      <c r="C40" s="15">
-        <v>45</v>
-      </c>
-      <c r="D40" s="15">
-        <v>150</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L40" s="15">
-        <v>20</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N40" s="15">
-        <v>20</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="15" customFormat="1">
-      <c r="A41" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="15">
-        <v>5</v>
-      </c>
-      <c r="C41" s="15">
-        <v>30</v>
-      </c>
-      <c r="D41" s="15">
-        <v>120</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" s="15">
-        <v>20</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N41" s="15">
-        <v>20</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="15" customFormat="1">
-      <c r="A42" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" s="15">
-        <v>1</v>
-      </c>
-      <c r="C42" s="15">
-        <v>15</v>
-      </c>
-      <c r="D42" s="15">
-        <v>120</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F42" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" s="15">
-        <v>20</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N42" s="15">
-        <v>20</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="15" customFormat="1">
-      <c r="A43" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
-        <v>20</v>
-      </c>
-      <c r="D43" s="15">
-        <v>30</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L43" s="15">
-        <v>8</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N43" s="15">
-        <v>1</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="15" customFormat="1">
-      <c r="A44" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-      <c r="C44" s="15">
-        <v>15</v>
-      </c>
-      <c r="D44" s="15">
-        <v>50</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L44" s="15">
-        <v>8</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N44" s="15">
-        <v>1</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="15" customFormat="1">
-      <c r="A45" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B45" s="15">
-        <v>0</v>
-      </c>
-      <c r="C45" s="15">
-        <v>5</v>
-      </c>
-      <c r="D45" s="15">
-        <v>100</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L45" s="15">
-        <v>10</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N45" s="15">
-        <v>9</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="15" customFormat="1">
-      <c r="A46" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="15">
-        <v>0</v>
-      </c>
-      <c r="C46" s="15">
-        <v>10</v>
-      </c>
-      <c r="D46" s="15">
-        <v>30</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L46" s="15">
-        <v>10</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N46" s="15">
-        <v>9</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="15" customFormat="1">
-      <c r="A47" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B47" s="15">
-        <v>0</v>
-      </c>
-      <c r="C47" s="15">
-        <v>33</v>
-      </c>
-      <c r="D47" s="15">
-        <v>15</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L47" s="15">
-        <v>50</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N47" s="15">
-        <v>1</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="15" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B48" s="15">
-        <v>2</v>
-      </c>
-      <c r="C48" s="15">
-        <v>60</v>
-      </c>
-      <c r="D48" s="15">
-        <v>20</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" s="15">
-        <v>50</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N48" s="15">
-        <v>1</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="15" customFormat="1">
-      <c r="A49" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" s="15">
-        <v>2</v>
-      </c>
-      <c r="C49" s="15">
-        <v>15</v>
-      </c>
-      <c r="D49" s="15">
-        <v>150</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L49" s="15">
-        <v>4</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N49" s="15">
-        <v>1</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="15" customFormat="1">
-      <c r="A50" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B50" s="15">
-        <v>3</v>
-      </c>
-      <c r="C50" s="15">
-        <v>8</v>
-      </c>
-      <c r="D50" s="15">
-        <v>70</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L50" s="15">
-        <v>4</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N50" s="15">
-        <v>1</v>
-      </c>
-      <c r="O50" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="15" customFormat="1">
-      <c r="A51" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51" s="15">
-        <v>0</v>
-      </c>
-      <c r="C51" s="15">
-        <v>6</v>
-      </c>
-      <c r="D51" s="15">
-        <v>115</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L51" s="15">
-        <v>4</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N51" s="15">
-        <v>1</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="15" customFormat="1">
-      <c r="A52" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" s="15">
-        <v>3</v>
-      </c>
-      <c r="C52" s="15">
-        <v>16</v>
-      </c>
-      <c r="D52" s="15">
-        <v>80</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F52" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L52" s="15">
-        <v>4</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N52" s="15">
-        <v>1</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="15" customFormat="1">
-      <c r="A53" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B53" s="15">
-        <v>1</v>
-      </c>
-      <c r="C53" s="15">
-        <v>7</v>
-      </c>
-      <c r="D53" s="15">
-        <v>100</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L53" s="15">
-        <v>4</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N53" s="15">
-        <v>1</v>
-      </c>
-      <c r="O53" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="15" customFormat="1">
-      <c r="A54" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="15">
-        <v>3</v>
-      </c>
-      <c r="C54" s="15">
-        <v>5</v>
-      </c>
-      <c r="D54" s="15">
-        <v>100</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L54" s="15">
-        <v>4</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N54" s="15">
-        <v>1</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="15" customFormat="1">
-      <c r="A55" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B55" s="15">
-        <v>1</v>
-      </c>
-      <c r="C55" s="15">
-        <v>3</v>
-      </c>
-      <c r="D55" s="15">
-        <v>120</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L55" s="15">
-        <v>4</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N55" s="15">
-        <v>1</v>
-      </c>
-      <c r="O55" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="15" customFormat="1">
-      <c r="A56" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" s="15">
-        <v>2</v>
-      </c>
-      <c r="C56" s="15">
-        <v>15</v>
-      </c>
-      <c r="D56" s="15">
-        <v>120</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="15">
-        <v>1</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L56" s="15">
-        <v>4</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N56" s="15">
-        <v>1</v>
-      </c>
-      <c r="O56" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B57" s="15">
-        <v>0</v>
-      </c>
-      <c r="C57" s="15">
-        <v>7</v>
-      </c>
-      <c r="D57" s="15">
-        <v>60</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L57" s="15">
-        <v>4</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N57" s="15">
-        <v>1</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="15" customFormat="1">
-      <c r="A58" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>15</v>
-      </c>
-      <c r="D58" s="15">
-        <v>16</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F58" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L58" s="15">
-        <v>4</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N58" s="15">
-        <v>1</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="15" customFormat="1">
-      <c r="A59" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="B59" s="15">
-        <v>0</v>
-      </c>
-      <c r="C59" s="15">
-        <v>10</v>
-      </c>
-      <c r="D59" s="15">
-        <v>40</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L59" s="15">
-        <v>4</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N59" s="15">
-        <v>1</v>
-      </c>
-      <c r="O59" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="15" customFormat="1">
-      <c r="A60" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B60" s="15">
-        <v>1</v>
-      </c>
-      <c r="C60" s="15">
-        <v>48</v>
-      </c>
-      <c r="D60" s="15">
-        <v>30</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" s="15">
-        <v>0.34</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L60" s="15">
-        <v>4</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N60" s="15">
-        <v>1</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="15" customFormat="1">
-      <c r="A61" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>12</v>
-      </c>
-      <c r="D61" s="15">
-        <v>38</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F61" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L61" s="15">
-        <v>4</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N61" s="15">
-        <v>1</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>319</v>
+      <c r="M61" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N61" s="9">
+        <v>1</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/references.xlsx
+++ b/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34637\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28532EBF-436F-4C51-9207-1E54C169EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1008082E-3270-4177-8DBC-B06841CFA521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0766DAD-74FE-4A30-8A9B-725B4DC5477A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7272444-D6FA-45BE-B818-4095541D302B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="144">
   <si>
     <t>Species</t>
   </si>
@@ -80,16 +80,13 @@
     <t xml:space="preserve">Waycott, M., McMahon, K., &amp; Lavery, P. (2014). A guide to southern temperate seagrasses. CSIRO Publising. </t>
   </si>
   <si>
-    <t>Larkum, A.W.D., McComb, A.J., &amp; Sheperd, S.A. (1989). Biology of seagrasses : a treatise on the biology of seagrasses with special reference to the Australian region. Elsevier.</t>
+    <t>Larkum, A.W.D., McComb, A.J., &amp; Sheperd, S.A. (1989). Biology of seagrasses: a treatise on the biology of seagrasses with special reference to the Australian region. Elsevier.</t>
   </si>
   <si>
     <t>Dioecious</t>
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Orth, R.J., Harwell, M.C., Bailey, E.M., Bartholomew, A., Jawad, J.T., Lombana, A.V., Moore, K.A., Rhode, J.M., &amp; Woods, H.E. (2000). A review of issues in seagrass seed dormancy and germination: implications for conservation and restoration. Marine Ecology Progress Series, 200, 277-288.</t>
   </si>
   <si>
     <r>
@@ -143,6 +140,18 @@
     <t>Amphibolis griffithii</t>
   </si>
   <si>
+    <t>Cymodocea angustata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den Hartog, C. (1970). The sea-grasses of the world. North Holland Publishing Co., Amsterdam. </t>
+  </si>
+  <si>
+    <t>Transient</t>
+  </si>
+  <si>
+    <t>Orth, R.J., Harwell, M.C., Bailey, E.M., Bartholomew, A., Jawad, J.T., Lombana, A.V., Moore, K.A., Rhode, J.M., &amp; Woods, H.E. (2000). A review of issues in seagrass seed dormancy and germination: implications for conservation and restoration. Marine Ecology Progress Series, 200, 277-288.</t>
+  </si>
+  <si>
     <t>Cymodocea nodosa</t>
   </si>
   <si>
@@ -195,9 +204,6 @@
     </r>
   </si>
   <si>
-    <t>Transient</t>
-  </si>
-  <si>
     <t>Rodriguez-Prieto, C., Ballesteros, E., Boisset, F., &amp; Afonso-Carrillo, J. (2013). Guía de las Macroalgas y fanaerógamas marinas del Mediterráneo occidental. Omega ediciones.</t>
   </si>
   <si>
@@ -265,6 +271,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Artika, S. R., R. Ambo-Rappe, M. Teichberg, A. Moreira-Saporiti &amp; I. G. Viana, 2020. Morphological and physiological responses of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enhalus acoroides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seedlings under varying temperature and nutrient treatment. Frontiers in Marine Science 7: 325.</t>
+    </r>
+  </si>
+  <si>
+    <t>Halodule bermudensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrer-Gallego P. P., &amp; Boisset F. (2020). A revision of the typification of some names in the seagrass genera Amphibolis, Cymodocea, Halodule and Syringodium (Cymodoceaceae).  Willdenowia 50: 173–186. </t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Halodule ciliata</t>
+  </si>
+  <si>
+    <t>Kuo, J. &amp; de Hertog, C. (2001). Seagrass taxonomy and identification key. Global Seagrass Research Methods: 31-78. Elsevier Science B.V., Amsterdam.</t>
+  </si>
+  <si>
+    <t>Halodule emarginata</t>
+  </si>
+  <si>
     <t>Halodule pinifolia</t>
   </si>
   <si>
@@ -314,12 +364,12 @@
     </r>
   </si>
   <si>
-    <t>Persistent</t>
-  </si>
-  <si>
     <t>Halodule uninervis</t>
   </si>
   <si>
+    <t xml:space="preserve">Inglis, G.J. (2000). Disturbance-related heterogeneity in the seed banks of a marine angiosperm. Journal of Ecology, 88, 88-99. </t>
+  </si>
+  <si>
     <t>Halodule wrightii</t>
   </si>
   <si>
@@ -329,72 +379,87 @@
     <t>van Tussenbroek, B. I., Barba-Santos, M. G., Wong, J. G. R., van Dijk, J. K., Waycott, M., &amp; Esparza, E. (2010). A Guide to the tropical seagrasses of the Western Atlantic. Universidad Nacional Autónoma de MéxicoI, SBN: 978-607-02-1222-2.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Calvin McMillan, C. (1981). Seed reserves and seed germination for two seagrasses, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Halodule wrightii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Syringodium filiforme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, from the western Atlantic. Aquatic Botany, 11, 279-296.</t>
+    </r>
+  </si>
+  <si>
     <t>Halophila australis</t>
   </si>
   <si>
+    <t>Kuo, K. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. Plants, 9, 1732.</t>
+  </si>
+  <si>
+    <t>Halophila baillonis</t>
+  </si>
+  <si>
+    <t>Kuo, K. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. Plants 2020, 9, 1732; doi:10.3390/plants9121732.</t>
+  </si>
+  <si>
+    <t>Orth, R.J., Harwell, M.C., Bailey, E.M., Bartholomew, A., Jawad, J.T., Lombana, A.V., Moore, K.A., Rhode, J.M., &amp; Woods, H.E. (2000). A review of issues in seagrass seed dormancy and germination: implications for conservation and restoration. Marine Ecolo</t>
+  </si>
+  <si>
+    <t>Orth, R. J., Harwell, M. C., &amp; Inglis, G. J. (2007). Ecology of seagrass seeds and seagrass dispersal processes. In Seagrasses: Biology, Ecologyand Conservation (pp. 111-133). Springer, Dordrecht.</t>
+  </si>
+  <si>
     <t>Halophila beccarii</t>
   </si>
   <si>
     <t>Mishra, A.K., &amp; Apte, D. (2021). The current status of Halophila beccarii: An ecologically significant, yet vulnerable seagrass of India. Ocean &amp; Coastal Management, 200, 105484.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bujang, J. S., Zakaria, M. H., Arshad, A., Lam, S. L., &amp; Ogawa, H. (2006). Flowers and sexes in Malaysian seagrasses. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coastal Marine Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1), 184-188.</t>
-    </r>
+    <t>Monoecious</t>
+  </si>
+  <si>
+    <t>Halophila capricorni</t>
   </si>
   <si>
     <t>Halophila decipiens</t>
   </si>
   <si>
-    <t>Monoecious</t>
-  </si>
-  <si>
     <t>Halophila engelmannii</t>
-  </si>
-  <si>
-    <t>Kuo, K. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. Plants, 9, 1732.</t>
   </si>
   <si>
     <t>Kuo, K. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. Plants 2020, 9, 1732.</t>
@@ -593,19 +658,25 @@
     </r>
   </si>
   <si>
+    <t>Halophila nipponica</t>
+  </si>
+  <si>
     <t>Halophila minor</t>
   </si>
   <si>
     <t>Halophila ovalis</t>
   </si>
   <si>
+    <t>Ruiz-Montoya, L., R. J. Lowe, K. P. Van Niel, &amp; Kendrick, G.A. (2012). The role of hydrodynamics on seed dispersal in seagrasses. Limnology and Oceanography, 57(5), 1257–1265.</t>
+  </si>
+  <si>
     <t>Halophila spinulosa</t>
   </si>
   <si>
     <t>Halophila stipulacea</t>
   </si>
   <si>
-    <t>Kuo, K. (2020). Taxonomy of the Genus Halophila Thouars (Hydocharitaceae): A Review. Plants 2020, 9, 1732; doi:10.3390/plants9121732.</t>
+    <t>Halophila sulawesii</t>
   </si>
   <si>
     <t>Halophila tricostata</t>
@@ -728,10 +799,76 @@
     <t>Phyllospadix japonicus</t>
   </si>
   <si>
+    <r>
+      <t>Park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, J.L., Son, M.H., Kim, J.B., &amp; Lee, K.S. (2014). An effective seeding method for restoring the surfgrass Phyllospadix japonicus using an artificial reef. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ocean Science Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 49, 403–410. </t>
+    </r>
+  </si>
+  <si>
     <t>Phyllospadix scouleri</t>
   </si>
   <si>
     <t>Barnabas, A. D. (1994). Anatomical, histochemical and ultrastructural features of the seagrass Phyllospadix scouleri Hook. Aquatic Botany, 49, 167-182.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dooley, F.D., Wyllie-Echeverria, S., Gupta, E., &amp; Ward, P.D. (2015). Tolerance of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phyllospadix scouleri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seedlings to hydrogen sulfide. Aquatic Botany, 123, 72-75. </t>
+    </r>
+  </si>
+  <si>
+    <t>Phyllospadix serrulatus</t>
+  </si>
+  <si>
+    <t>Hartog, C.D. &amp;  Kuo, J. (2006). Taxonomy and biogeography of seagrasses. 1–23. In Seagrasses. Springer, Dordtrecht.</t>
   </si>
   <si>
     <t>Phyllospadix torreyi</t>
@@ -786,9 +923,6 @@
     <t>Posidonia angustifolia</t>
   </si>
   <si>
-    <t>Kuo, J. &amp; de Hertog, C. (2001). Seagrass taxonomy and identification key. Global Seagrass Research Methods: 31-78. Elsevier Science B.V., Amsterdam.</t>
-  </si>
-  <si>
     <t>Posidonia australis</t>
   </si>
   <si>
@@ -1238,6 +1372,9 @@
       </rPr>
       <t xml:space="preserve"> Irmisch ex Aschers. In South-Eastern Australia. Aquatic Botany, 33(1–2), 131-140.</t>
     </r>
+  </si>
+  <si>
+    <t>Dos Santos, V.M., &amp; Matheson, F.E. (2017). Higher seagrass cover and biomass increases sexual reproductive effort: A rare case study of Zostera muelleri in New Zealand. Aquatic Botany, 138, 29–36.</t>
   </si>
   <si>
     <t>Zostera nigricaulis</t>
@@ -1434,12 +1571,38 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1457,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1477,16 +1640,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1822,22 +1994,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B5C4E-46DB-4971-8768-6AE5F349001C}">
-  <dimension ref="A1:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B4AD2A-A7B2-4D6F-9001-F938C11290A0}">
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="67" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" style="4" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="50.88671875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -1845,11 +2017,12 @@
     <col min="12" max="12" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.33203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="4"/>
+    <col min="15" max="15" width="36.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1915,26 +2088,29 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="4">
         <v>100</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="P2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>80</v>
@@ -1957,329 +2133,353 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="4">
         <v>100</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="P3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
-        <v>600</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4">
-        <v>160</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>600</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>160</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4">
-        <v>14</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>166</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L7" s="4">
+        <v>14</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>250</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4">
-        <v>139</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4">
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="4">
-        <v>200</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="P9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="4">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="4">
-        <v>60</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="P10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="4">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="4">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>45</v>
@@ -2287,1140 +2487,1221 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="M11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4">
-        <v>60</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="4">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="L12" s="4">
-        <v>30</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="4">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="4">
-        <v>60</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="4">
+        <v>70</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="P14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4">
-        <v>60</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>55</v>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L15" s="4">
         <v>60</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
+      <c r="P15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="4">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="4">
+        <v>60</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="P16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="3">
-        <v>60</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="4">
         <v>60</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P17" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L18" s="4">
-        <v>60</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="L19" s="4">
-        <v>30</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="4">
         <v>60</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>65</v>
+      <c r="G21" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="4">
         <v>60</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B22" s="4">
         <v>300</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="4">
-        <v>10</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="K22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="3">
+        <v>60</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="8" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="4">
-        <v>600</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>25</v>
+      <c r="H23" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="3">
+        <v>60</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J24" s="4">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>18</v>
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>72</v>
+      <c r="G25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J25" s="4">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
+        <v>1.3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4">
-        <v>3000</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>77</v>
+        <v>3.5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>78</v>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="4">
+        <v>30</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="P26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="4">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="L27" s="4">
+        <v>60</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="4">
-        <v>600</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="N27" s="5"/>
+      <c r="P27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="4">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="4">
-        <v>20</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="4">
-        <v>20</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="4">
-        <v>600</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
+      <c r="B28" s="6">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J28" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="4">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="L28" s="5">
+        <v>60</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>80</v>
+      <c r="B29" s="4">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="4">
-        <v>20</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4">
+        <v>60</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="4">
-        <v>20</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="3">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4">
+        <v>300</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4">
+        <v>10</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="P30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4">
         <v>600</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="4">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="C31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="4">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="4">
-        <v>20</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="4">
-        <v>20</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="4">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="4">
-        <v>10</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="4">
-        <v>20</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4">
-        <v>1800</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>900</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D32" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J32" s="4">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="4">
-        <v>20</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4">
-        <v>1400</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>2000</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D33" s="4">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J33" s="4">
-        <v>20</v>
-      </c>
-      <c r="K33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="4">
-        <v>20</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>90</v>
+      <c r="G34" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J34" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>91</v>
+      <c r="P34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B35" s="4">
-        <v>550</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>3000</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
+      <c r="E35" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>13</v>
+      <c r="G35" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="4">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J35" s="4">
-        <v>8</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L35" s="4">
         <v>1</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B36" s="4">
-        <v>80</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>93</v>
+        <v>600</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="4">
-        <v>10</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4">
+        <v>20</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="4">
-        <v>9</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>96</v>
+      <c r="P36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B37" s="4">
-        <v>300</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>600</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>17</v>
+      <c r="I37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J37" s="4">
-        <v>10</v>
-      </c>
-      <c r="K37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="4">
+        <v>20</v>
+      </c>
+      <c r="M37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="4">
-        <v>9</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="4">
-        <v>90</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="4">
-        <v>8</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>13</v>
@@ -3429,40 +3710,43 @@
         <v>16</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="4">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="4">
-        <v>50</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4">
+        <v>20</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="4">
-        <v>90</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="B39" s="3">
+        <v>600</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>13</v>
@@ -3471,506 +3755,951 @@
         <v>16</v>
       </c>
       <c r="I39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="4">
+        <v>20</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="4">
-        <v>50</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4">
+        <v>20</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="4">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B40" s="4">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="3">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="4">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="4">
+        <v>20</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="P40" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="B41" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4">
+        <v>20</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="4">
-        <v>4</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="L41" s="4">
+        <v>20</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="N41" s="5"/>
+      <c r="P41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="4">
-        <v>400</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B42" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="4">
+        <v>20</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="4">
+        <v>20</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="P42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="B43" s="4">
+        <v>200</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="4">
+        <v>8</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J41" s="4">
-        <v>4</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="4">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="4">
-        <v>450</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="4">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="4">
-        <v>11</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="4">
-        <v>4</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L43" s="4">
         <v>1</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>113</v>
+      <c r="P43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B44" s="4">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="3">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
         <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="4">
+        <v>8</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J44" s="4">
-        <v>4</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="P44" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4">
+        <v>80</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="4">
+        <v>10</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="4">
+        <v>9</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="P45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="3">
-        <v>900</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="4">
+        <v>300</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="4">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="J46" s="4">
+        <v>10</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="4">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" s="4">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="4">
-        <v>100</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="L46" s="4">
+        <v>9</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="P46" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="B47" s="4">
+        <v>90</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4">
+        <v>50</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J46" s="4">
-        <v>4</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="4">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="4">
-        <v>500</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="4">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="4">
-        <v>4</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L47" s="4">
         <v>1</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="4">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>26</v>
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4">
+        <v>50</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J48" s="4">
-        <v>2</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="L48" s="4">
         <v>1</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P48" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="4">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J49" s="4">
         <v>4</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" s="4">
         <v>1</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" s="4">
-        <v>300</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>122</v>
+        <v>400</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>122</v>
+      <c r="E50" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J50" s="4">
         <v>4</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
+      <c r="P50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="4">
+        <v>450</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="4">
+        <v>6</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="P51" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="4">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="P52" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="4">
+        <v>200</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="P53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="3">
+        <v>900</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="3">
+        <v>23</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="4">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="P54" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="4">
+        <v>100</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="P55" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="4">
+        <v>500</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="4">
+        <v>4</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="P56" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="4">
+        <v>250</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="P57" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="4">
+        <v>450</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="4">
+        <v>4</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="P58" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="4">
+        <v>300</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="4">
+        <v>4</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="P59" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{B5602A22-EB30-49A8-902A-2B31E17C1DBB}"/>
-    <hyperlink ref="C11" r:id="rId2" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{9F9DD23C-CEEF-4913-A26A-43AC1D81FA4C}"/>
-    <hyperlink ref="E11" r:id="rId3" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{9D026DD2-A2FE-40EE-B52A-1E92DDBE73A0}"/>
-    <hyperlink ref="E38" r:id="rId4" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{D1285FC6-A4DB-4C15-886E-615B986D660F}"/>
-    <hyperlink ref="C25" r:id="rId5" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{9D234FE4-9AAC-4876-B608-B3C6AC7D3B36}"/>
-    <hyperlink ref="E25" r:id="rId6" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{D5FE92B0-756A-4157-BEC5-73ED6795A342}"/>
-    <hyperlink ref="C6" r:id="rId7" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{6C00B01E-3C3D-49B8-8ED7-66AB8AF393DD}"/>
-    <hyperlink ref="C7" r:id="rId8" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{AF1E34FA-2B4A-408F-AB57-DC0BB6456D8E}"/>
-    <hyperlink ref="E7" r:id="rId9" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{6E22ED20-B5C0-4983-B6BD-EADDD0A82369}"/>
-    <hyperlink ref="E8" r:id="rId10" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{41B99737-3BA6-4E68-B020-DF30491CF3FB}"/>
-    <hyperlink ref="C8" r:id="rId11" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{5F6ECF2F-179E-4548-A04A-2C1E137993D6}"/>
+    <hyperlink ref="E7" r:id="rId1" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{71001DA8-46DE-409A-AF63-CAF8E25CB271}"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{3E3033FC-9DCA-42F6-9B1C-A69FC8F597B1}"/>
+    <hyperlink ref="E16" r:id="rId3" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{5FE3056B-254C-488F-A48C-8CCA42EEE4C8}"/>
+    <hyperlink ref="E47" r:id="rId4" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{A1C6541B-80B6-4375-A5C2-138C74D01B1F}"/>
+    <hyperlink ref="C33" r:id="rId5" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{6A7DA18B-A23D-4F9A-A2DC-F142BEA5BF69}"/>
+    <hyperlink ref="E33" r:id="rId6" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{5622562F-7F5F-4F0E-8B46-BCF5430DD029}"/>
+    <hyperlink ref="C7" r:id="rId7" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{EA1D7B08-8C01-4D43-A013-A9B030B1E9EA}"/>
+    <hyperlink ref="C11" r:id="rId8" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{6C93D1C7-5CAE-4AEC-BC96-ACDBF84523B7}"/>
+    <hyperlink ref="E11" r:id="rId9" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{C853D365-C3AD-4917-85C5-1B8750E39587}"/>
+    <hyperlink ref="E12" r:id="rId10" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{6B729E37-44F4-414C-ABA0-07718A56BA59}"/>
+    <hyperlink ref="C12" r:id="rId11" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{11BAA76A-E6E7-42A1-8290-D7A6FCEFB7E9}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{2DEB7F00-4280-42E5-8E80-90DEE6254269}"/>
+    <hyperlink ref="G8" r:id="rId13" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{A397D1FF-35AA-4CC6-A4E0-C9A025DEC945}"/>
+    <hyperlink ref="G9" r:id="rId14" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{24C1E869-ED8D-4AEF-8FD2-9D2B089C9D1D}"/>
+    <hyperlink ref="G10" r:id="rId15" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{5499B0E5-7928-44C7-B4C3-D266F67CD3B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references.xlsx
+++ b/references.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34637\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34637\Desktop\traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1008082E-3270-4177-8DBC-B06841CFA521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B1AE8A-2997-4BD3-ABB6-1767F059CB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7272444-D6FA-45BE-B818-4095541D302B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22DC3A48-EAC4-48BB-8616-346A006DD9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="142">
   <si>
     <t>Species</t>
   </si>
@@ -512,56 +512,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>, 97-102.</t>
-    </r>
-  </si>
-  <si>
-    <t>Halophila johnsonii</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jewett-Smith, J., McMillan, C., Kenworthy, W. J., &amp; Bird, K. (1997). Flowering and genetic banding patterns of Halophila johnsonii and conspecifics. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aquatic Botany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3-4), 323-331.</t>
     </r>
   </si>
   <si>
@@ -1994,11 +1944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B4AD2A-A7B2-4D6F-9001-F938C11290A0}">
-  <dimension ref="A1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA6EB7-48BD-480E-835A-A3FC44BB22F1}">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,71 +2869,72 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="4">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="3">
         <v>60</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="P21" s="2" t="s">
+      <c r="M21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
+      <c r="A22" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B22" s="4">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>40</v>
@@ -2995,78 +2946,77 @@
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L22" s="3">
         <v>60</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="8" t="s">
-        <v>70</v>
+      <c r="P22" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>75</v>
+      <c r="A23" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="3">
-        <v>60</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="J23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="4">
+        <v>30</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="P23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>180</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D24" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
@@ -3074,8 +3024,8 @@
       <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
+      <c r="G24" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>40</v>
@@ -3084,10 +3034,10 @@
         <v>23</v>
       </c>
       <c r="J24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>54</v>
+        <v>1.3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>76</v>
       </c>
       <c r="L24" s="4">
         <v>30</v>
@@ -3097,7 +3047,7 @@
       </c>
       <c r="N24" s="5"/>
       <c r="P24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -3105,22 +3055,22 @@
         <v>77</v>
       </c>
       <c r="B25" s="4">
-        <v>180</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="4">
-        <v>70</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>3.5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>54</v>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -3129,16 +3079,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>78</v>
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L25" s="4">
         <v>30</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>54</v>
+      <c r="M25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="N25" s="5"/>
       <c r="P25" s="2" t="s">
@@ -3147,16 +3097,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="4">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>54</v>
@@ -3164,8 +3114,8 @@
       <c r="F26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>13</v>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>40</v>
@@ -3174,43 +3124,43 @@
         <v>23</v>
       </c>
       <c r="J26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L26" s="4">
-        <v>30</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="N26" s="5"/>
       <c r="P26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="4">
-        <v>60</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="6">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>10</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>40</v>
@@ -3222,40 +3172,39 @@
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="4">
+        <v>71</v>
+      </c>
+      <c r="L27" s="5">
         <v>60</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="5"/>
+        <v>72</v>
+      </c>
       <c r="P27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="6">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="6">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>54</v>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>40</v>
@@ -3267,16 +3216,17 @@
         <v>1</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="5">
+        <v>17</v>
+      </c>
+      <c r="L28" s="4">
         <v>60</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N28" s="5"/>
       <c r="P28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -3284,37 +3234,37 @@
         <v>82</v>
       </c>
       <c r="B29" s="4">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>56</v>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>23</v>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>18</v>
@@ -3329,31 +3279,31 @@
         <v>84</v>
       </c>
       <c r="B30" s="4">
-        <v>300</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J30" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>17</v>
@@ -3371,25 +3321,25 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>22</v>
@@ -3398,10 +3348,10 @@
         <v>23</v>
       </c>
       <c r="J31" s="4">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L31" s="4">
         <v>1</v>
@@ -3411,7 +3361,7 @@
       </c>
       <c r="N31" s="5"/>
       <c r="P31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -3419,22 +3369,22 @@
         <v>89</v>
       </c>
       <c r="B32" s="4">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>22</v>
@@ -3443,10 +3393,10 @@
         <v>23</v>
       </c>
       <c r="J32" s="4">
-        <v>7</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
@@ -3461,25 +3411,25 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="4">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>22</v>
@@ -3488,20 +3438,20 @@
         <v>23</v>
       </c>
       <c r="J33" s="4">
-        <v>8</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N33" s="5"/>
       <c r="P33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3509,22 +3459,22 @@
         <v>94</v>
       </c>
       <c r="B34" s="4">
-        <v>600</v>
-      </c>
-      <c r="C34" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>88</v>
+      <c r="G34" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>22</v>
@@ -3536,13 +3486,13 @@
         <v>11</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="N34" s="5"/>
       <c r="P34" s="2" t="s">
@@ -3551,61 +3501,61 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="4">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J35" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L35" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N35" s="5"/>
       <c r="P35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="4">
         <v>600</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
@@ -3623,10 +3573,10 @@
         <v>13</v>
       </c>
       <c r="J36" s="4">
-        <v>20</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>76</v>
       </c>
       <c r="L36" s="4">
         <v>20</v>
@@ -3636,21 +3586,21 @@
       </c>
       <c r="N36" s="5"/>
       <c r="P36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="4">
-        <v>600</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
@@ -3664,14 +3614,14 @@
       <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>13</v>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J37" s="4">
-        <v>22</v>
-      </c>
-      <c r="K37" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L37" s="4">
         <v>20</v>
@@ -3681,21 +3631,21 @@
       </c>
       <c r="N37" s="5"/>
       <c r="P37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>13</v>
@@ -3726,30 +3676,30 @@
       </c>
       <c r="N38" s="5"/>
       <c r="P38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="3">
-        <v>600</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>101</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D39" s="4">
         <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>13</v>
+      <c r="G39" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>16</v>
@@ -3758,10 +3708,10 @@
         <v>23</v>
       </c>
       <c r="J39" s="4">
-        <v>20</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L39" s="4">
         <v>20</v>
@@ -3771,7 +3721,7 @@
       </c>
       <c r="N39" s="5"/>
       <c r="P39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3779,34 +3729,34 @@
         <v>103</v>
       </c>
       <c r="B40" s="4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>104</v>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>23</v>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J40" s="4">
-        <v>10</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L40" s="4">
         <v>20</v>
@@ -3821,16 +3771,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
@@ -3844,8 +3794,8 @@
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>13</v>
+      <c r="I41" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J41" s="4">
         <v>20</v>
@@ -3861,75 +3811,75 @@
       </c>
       <c r="N41" s="5"/>
       <c r="P41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="4">
+        <v>200</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="4">
-        <v>1400</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" s="4">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N42" s="5"/>
       <c r="P42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>107</v>
+      <c r="A43" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B43" s="4">
-        <v>200</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>108</v>
+        <v>550</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>109</v>
+      <c r="G43" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>40</v>
@@ -3950,76 +3900,76 @@
         <v>18</v>
       </c>
       <c r="N43" s="5"/>
-      <c r="P43" s="2" t="s">
-        <v>107</v>
+      <c r="P43" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="4">
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B44" s="4">
-        <v>550</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D44" s="4">
         <v>4</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
+      <c r="E44" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J44" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="P44" s="8" t="s">
-        <v>110</v>
+      <c r="P44" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>111</v>
+      <c r="A45" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B45" s="4">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D45" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>114</v>
+      <c r="G45" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
@@ -4040,53 +3990,53 @@
         <v>18</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="P45" s="2" t="s">
-        <v>111</v>
+      <c r="P45" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>115</v>
+      <c r="A46" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B46" s="4">
-        <v>300</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D46" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>117</v>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>23</v>
+      <c r="I46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J46" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N46" s="5"/>
-      <c r="P46" s="8" t="s">
-        <v>115</v>
+      <c r="P46" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4100,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="4">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>119</v>
@@ -4139,31 +4089,31 @@
         <v>120</v>
       </c>
       <c r="B48" s="4">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E48" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J48" s="4">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>17</v>
@@ -4181,25 +4131,25 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" s="4">
-        <v>600</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="3">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>123</v>
+        <v>400</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>22</v>
@@ -4221,42 +4171,42 @@
       </c>
       <c r="N49" s="5"/>
       <c r="P49" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B50" s="4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D50" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>124</v>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>23</v>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J50" s="4">
-        <v>4</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>17</v>
+        <v>2.5</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
@@ -4265,43 +4215,43 @@
         <v>18</v>
       </c>
       <c r="N50" s="5"/>
-      <c r="P50" s="2" t="s">
+      <c r="P50" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>127</v>
+      <c r="A51" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B51" s="4">
-        <v>450</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>128</v>
+        <v>1000</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D51" s="4">
-        <v>6</v>
-      </c>
-      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
+      <c r="G51" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>13</v>
+      <c r="I51" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J51" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L51" s="4">
         <v>1</v>
@@ -4310,8 +4260,8 @@
         <v>18</v>
       </c>
       <c r="N51" s="5"/>
-      <c r="P51" s="8" t="s">
-        <v>127</v>
+      <c r="P51" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -4319,22 +4269,22 @@
         <v>130</v>
       </c>
       <c r="B52" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="4">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>131</v>
+        <v>200</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>22</v>
@@ -4359,27 +4309,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="4">
-        <v>200</v>
+      <c r="B53" s="3">
+        <v>900</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>133</v>
+      <c r="G53" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>22</v>
@@ -4390,8 +4340,8 @@
       <c r="J53" s="4">
         <v>4</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>17</v>
+      <c r="K53" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L53" s="4">
         <v>1</v>
@@ -4400,31 +4350,31 @@
         <v>18</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="P53" s="2" t="s">
+      <c r="P53" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="3">
-        <v>900</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4">
+        <v>100</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="3">
-        <v>23</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="4">
+        <v>3</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>22</v>
@@ -4433,10 +4383,10 @@
         <v>23</v>
       </c>
       <c r="J54" s="4">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>28</v>
+        <v>1.7</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="L54" s="4">
         <v>1</v>
@@ -4445,25 +4395,25 @@
         <v>18</v>
       </c>
       <c r="N54" s="5"/>
-      <c r="P54" s="8" t="s">
+      <c r="P54" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4">
-        <v>100</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>137</v>
+        <v>500</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>61</v>
@@ -4478,10 +4428,10 @@
         <v>23</v>
       </c>
       <c r="J55" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L55" s="4">
         <v>1</v>
@@ -4491,30 +4441,30 @@
       </c>
       <c r="N55" s="5"/>
       <c r="P55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D56" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>22</v>
@@ -4523,10 +4473,10 @@
         <v>23</v>
       </c>
       <c r="J56" s="4">
-        <v>4</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L56" s="4">
         <v>1</v>
@@ -4536,30 +4486,30 @@
       </c>
       <c r="N56" s="5"/>
       <c r="P56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="4">
+        <v>450</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="4">
-        <v>250</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D57" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>22</v>
@@ -4568,10 +4518,10 @@
         <v>23</v>
       </c>
       <c r="J57" s="4">
-        <v>2</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L57" s="4">
         <v>1</v>
@@ -4581,7 +4531,7 @@
       </c>
       <c r="N57" s="5"/>
       <c r="P57" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4589,16 +4539,16 @@
         <v>141</v>
       </c>
       <c r="B58" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" s="4">
         <v>4</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>61</v>
@@ -4630,76 +4580,31 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="4">
-        <v>300</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="4">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="4">
-        <v>4</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="4">
-        <v>1</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="P59" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
+      <c r="B61" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{71001DA8-46DE-409A-AF63-CAF8E25CB271}"/>
-    <hyperlink ref="C16" r:id="rId2" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{3E3033FC-9DCA-42F6-9B1C-A69FC8F597B1}"/>
-    <hyperlink ref="E16" r:id="rId3" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{5FE3056B-254C-488F-A48C-8CCA42EEE4C8}"/>
-    <hyperlink ref="E47" r:id="rId4" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{A1C6541B-80B6-4375-A5C2-138C74D01B1F}"/>
-    <hyperlink ref="C33" r:id="rId5" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{6A7DA18B-A23D-4F9A-A2DC-F142BEA5BF69}"/>
-    <hyperlink ref="E33" r:id="rId6" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{5622562F-7F5F-4F0E-8B46-BCF5430DD029}"/>
-    <hyperlink ref="C7" r:id="rId7" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{EA1D7B08-8C01-4D43-A013-A9B030B1E9EA}"/>
-    <hyperlink ref="C11" r:id="rId8" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{6C93D1C7-5CAE-4AEC-BC96-ACDBF84523B7}"/>
-    <hyperlink ref="E11" r:id="rId9" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{C853D365-C3AD-4917-85C5-1B8750E39587}"/>
-    <hyperlink ref="E12" r:id="rId10" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{6B729E37-44F4-414C-ABA0-07718A56BA59}"/>
-    <hyperlink ref="C12" r:id="rId11" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{11BAA76A-E6E7-42A1-8290-D7A6FCEFB7E9}"/>
-    <hyperlink ref="C8" r:id="rId12" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{2DEB7F00-4280-42E5-8E80-90DEE6254269}"/>
-    <hyperlink ref="G8" r:id="rId13" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{A397D1FF-35AA-4CC6-A4E0-C9A025DEC945}"/>
-    <hyperlink ref="G9" r:id="rId14" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{24C1E869-ED8D-4AEF-8FD2-9D2B089C9D1D}"/>
-    <hyperlink ref="G10" r:id="rId15" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{5499B0E5-7928-44C7-B4C3-D266F67CD3B9}"/>
+    <hyperlink ref="E7" r:id="rId1" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{EB03C55C-E034-42FA-8B3C-C7359CB6FC34}"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{8E7ADF93-22B2-4993-AF72-3DA8C183726C}"/>
+    <hyperlink ref="E16" r:id="rId3" tooltip="Go to Ocean &amp; Coastal Management on ScienceDirect" display="https://www.sciencedirect.com/journal/ocean-and-coastal-management" xr:uid="{328D0E0C-529D-4DC3-8B73-2B862681BD49}"/>
+    <hyperlink ref="E46" r:id="rId4" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{8D9B8B9B-5684-47E9-A120-58AE1A4E8C3F}"/>
+    <hyperlink ref="C32" r:id="rId5" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{9A29FE74-FB32-432C-9F7A-856D73EDE023}"/>
+    <hyperlink ref="E32" r:id="rId6" tooltip="Reference:Barnabas1994a" display="http://floranorthamerica.org/Reference:Barnabas1994a" xr:uid="{6855D83D-2CA1-4330-B67D-8D8C8ED33BF7}"/>
+    <hyperlink ref="C7" r:id="rId7" display="mailto:rob.kenyon@marine.csiro.au" xr:uid="{E202844D-A071-4212-BB33-F7A38DC10D8C}"/>
+    <hyperlink ref="C11" r:id="rId8" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{0533DD1D-85AC-4AF6-A0E7-9030C465B805}"/>
+    <hyperlink ref="E11" r:id="rId9" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{51C64143-2032-4D79-9032-E3FD8A379968}"/>
+    <hyperlink ref="E12" r:id="rId10" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{1F550C4D-13D3-4E57-8E67-BA2005B17BB8}"/>
+    <hyperlink ref="C12" r:id="rId11" tooltip="Go to Aquatic Botany on ScienceDirect" display="https://www.sciencedirect.com/journal/aquatic-botany" xr:uid="{FF1233AC-9D2C-498B-8301-DC00B48F5638}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{526F3FFB-8C76-4DE2-8894-CCB92750354C}"/>
+    <hyperlink ref="G8" r:id="rId13" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{67987BFF-0CB6-4FC9-8150-C0B6B2BC2D47}"/>
+    <hyperlink ref="G9" r:id="rId14" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{D6BD4D0A-7924-44BF-84A6-8EEB6F459EC0}"/>
+    <hyperlink ref="G10" r:id="rId15" display="https://doi.org/10.3372/wi.50.50203" xr:uid="{F4D5236E-84C4-44BB-9AE7-8FECF8134DA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
